--- a/data/AlumnosMentores.xlsx
+++ b/data/AlumnosMentores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/developer/Dual/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Workspace\Dual enero 2024\Dual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF06A3-5690-C041-8EAB-2CBBF869FF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BDEFB-3039-43A0-BE2F-499FE1B4BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" xr2:uid="{AA9BD31D-C98D-4D3C-98D2-D5E7F9EA89A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AA9BD31D-C98D-4D3C-98D2-D5E7F9EA89A9}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUMNOS DUAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="181">
   <si>
     <t>ACTUALIZACIÓN DE DATOS ACADEMICOS INFORMATIVOS ALUMNOS DUAL DIFERENTES CICLOS Y EMPRESAS</t>
   </si>
@@ -575,6 +575,15 @@
   <si>
     <t>1,2,3</t>
   </si>
+  <si>
+    <t>CASTILLO FLORES ANA PAULA</t>
+  </si>
+  <si>
+    <t>SERVICIOS ADUANALES LUHAI</t>
+  </si>
+  <si>
+    <t>MARIA ELENA MARTÍNEZ GUERRERO</t>
+  </si>
 </sst>
 </file>
 
@@ -655,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -686,9 +695,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,31 +1011,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0655D9B4-B962-4AC7-A8EE-CA5B330878C6}">
   <dimension ref="A1:AB441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="G167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184:M184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="94.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="70.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.5" style="1"/>
-    <col min="21" max="28" width="12.5" style="4"/>
-    <col min="29" max="16384" width="12.5" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="94.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="70.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14" max="20" width="12.42578125" style="1"/>
+    <col min="21" max="28" width="12.42578125" style="4"/>
+    <col min="29" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1048,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1083,14 +1089,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="1">
         <v>201720420</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1132,14 +1138,14 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="1">
         <v>201720420</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1181,14 +1187,14 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="1">
         <v>201720420</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1230,14 +1236,14 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="1">
         <v>201810835</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1279,14 +1285,14 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="1">
         <v>201510051</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1328,14 +1334,14 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="1">
         <v>201810691</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1377,14 +1383,14 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="1">
         <v>202010620</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1426,14 +1432,14 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="1">
         <v>201920732</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1475,14 +1481,14 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="1">
         <v>201920732</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1524,14 +1530,14 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="1">
         <v>201920732</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1573,14 +1579,14 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="1">
         <v>201920732</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1622,14 +1628,14 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="1">
         <v>201922168</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1671,14 +1677,14 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="1">
         <v>201922168</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1720,14 +1726,14 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="1">
         <v>201922168</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1769,14 +1775,14 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="1">
         <v>201922168</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1810,14 +1816,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="1">
         <v>201922168</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1851,14 +1857,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="1">
         <v>201921028</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1892,14 +1898,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="1">
         <v>201921028</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1933,14 +1939,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="1">
         <v>201921028</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1974,14 +1980,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="1">
         <v>201921028</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2015,14 +2021,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>8</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="1">
         <v>201921028</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2056,14 +2062,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>9</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="1">
         <v>201811461</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2097,14 +2103,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="1">
         <v>201811461</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2138,14 +2144,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="1">
         <v>201811461</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2179,14 +2185,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>9</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="1">
         <v>201811461</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2220,14 +2226,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10</v>
       </c>
       <c r="B28" s="1">
         <v>7</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="1">
         <v>201421634</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2261,14 +2267,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="1">
         <v>201421634</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2302,14 +2308,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" s="1">
         <v>8</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="1">
         <v>201720689</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2343,14 +2349,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>11</v>
       </c>
       <c r="B31" s="1">
         <v>8</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="1">
         <v>201720689</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2384,14 +2390,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="1">
         <v>201720689</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2425,14 +2431,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" s="1">
         <v>8</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="1">
         <v>201720689</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2474,14 +2480,14 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12</v>
       </c>
       <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="1">
         <v>201722884</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2523,14 +2529,14 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>12</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="1">
         <v>201722884</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2572,14 +2578,14 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>12</v>
       </c>
       <c r="B36" s="1">
         <v>8</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="1">
         <v>201722884</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2621,14 +2627,14 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12</v>
       </c>
       <c r="B37" s="1">
         <v>8</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="1">
         <v>201722884</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2670,14 +2676,14 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>7</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="1">
         <v>201521667</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2719,14 +2725,14 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13</v>
       </c>
       <c r="B39" s="1">
         <v>7</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="1">
         <v>201521667</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2768,14 +2774,14 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>7</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="1">
         <v>201521667</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2817,14 +2823,14 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>14</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="1">
         <v>202011586</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2866,14 +2872,14 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>14</v>
       </c>
       <c r="B42" s="1">
         <v>8</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="1">
         <v>202011586</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2915,14 +2921,14 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
       <c r="B43" s="1">
         <v>8</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="1">
         <v>202011586</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2964,14 +2970,14 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>14</v>
       </c>
       <c r="B44" s="1">
         <v>8</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="1">
         <v>202011586</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3013,14 +3019,14 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>15</v>
       </c>
       <c r="B45" s="1">
         <v>8</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="1">
         <v>201921410</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3062,14 +3068,14 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>15</v>
       </c>
       <c r="B46" s="1">
         <v>8</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="1">
         <v>201921410</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3111,14 +3117,14 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>15</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="1">
         <v>201921410</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3160,14 +3166,14 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>15</v>
       </c>
       <c r="B48" s="1">
         <v>8</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="1">
         <v>201921410</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3209,14 +3215,14 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>15</v>
       </c>
       <c r="B49" s="1">
         <v>8</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="1">
         <v>201921410</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3258,14 +3264,14 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>15</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="1">
         <v>201921410</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3307,14 +3313,14 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>16</v>
       </c>
       <c r="B51" s="1">
         <v>8</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="1">
         <v>201920803</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3356,14 +3362,14 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>16</v>
       </c>
       <c r="B52" s="1">
         <v>8</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="1">
         <v>201920803</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3405,14 +3411,14 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>16</v>
       </c>
       <c r="B53" s="1">
         <v>8</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="1">
         <v>201920803</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3454,14 +3460,14 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>16</v>
       </c>
       <c r="B54" s="1">
         <v>8</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="1">
         <v>201920803</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3503,14 +3509,14 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>17</v>
       </c>
       <c r="B55" s="1">
         <v>8</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="1">
         <v>201920443</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3552,14 +3558,14 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>17</v>
       </c>
       <c r="B56" s="1">
         <v>8</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="1">
         <v>201920443</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3601,14 +3607,14 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>17</v>
       </c>
       <c r="B57" s="1">
         <v>8</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="1">
         <v>201920443</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3650,14 +3656,14 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>17</v>
       </c>
       <c r="B58" s="1">
         <v>8</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="1">
         <v>201920443</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3699,14 +3705,14 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17</v>
       </c>
       <c r="B59" s="1">
         <v>8</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="1">
         <v>201920443</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3748,14 +3754,14 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>18</v>
       </c>
       <c r="B60" s="1">
         <v>8</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="1">
         <v>201920156</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -3797,14 +3803,14 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>18</v>
       </c>
       <c r="B61" s="1">
         <v>8</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="1">
         <v>201920156</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3846,14 +3852,14 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>18</v>
       </c>
       <c r="B62" s="1">
         <v>8</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="1">
         <v>201920156</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3895,14 +3901,14 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>18</v>
       </c>
       <c r="B63" s="1">
         <v>8</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="1">
         <v>201920156</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3944,14 +3950,14 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>19</v>
       </c>
       <c r="B64" s="1">
         <v>8</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="1">
         <v>201920074</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3993,14 +3999,14 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>19</v>
       </c>
       <c r="B65" s="1">
         <v>8</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="1">
         <v>201920074</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4042,14 +4048,14 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>19</v>
       </c>
       <c r="B66" s="1">
         <v>8</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="1">
         <v>201920074</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4091,14 +4097,14 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>19</v>
       </c>
       <c r="B67" s="1">
         <v>8</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="1">
         <v>201920074</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4140,14 +4146,14 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>19</v>
       </c>
       <c r="B68" s="1">
         <v>8</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="1">
         <v>201920074</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4189,14 +4195,14 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>19</v>
       </c>
       <c r="B69" s="1">
         <v>8</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="1">
         <v>201920074</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4238,14 +4244,14 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>19</v>
       </c>
       <c r="B70" s="1">
         <v>8</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="1">
         <v>201920074</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4287,14 +4293,14 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>19</v>
       </c>
       <c r="B71" s="1">
         <v>8</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="1">
         <v>201920074</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4336,14 +4342,14 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>20</v>
       </c>
       <c r="B72" s="1">
         <v>9</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="1">
         <v>201711193</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4385,14 +4391,14 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>20</v>
       </c>
       <c r="B73" s="1">
         <v>9</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="1">
         <v>201711193</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4434,14 +4440,14 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>20</v>
       </c>
       <c r="B74" s="1">
         <v>9</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="1">
         <v>201711193</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4483,14 +4489,14 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>22</v>
       </c>
       <c r="B75" s="1">
         <v>7</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="1">
         <v>202010999</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4532,14 +4538,14 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>22</v>
       </c>
       <c r="B76" s="1">
         <v>7</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="1">
         <v>202010999</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4581,14 +4587,14 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>22</v>
       </c>
       <c r="B77" s="1">
         <v>7</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="1">
         <v>202010999</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4630,14 +4636,14 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>23</v>
       </c>
       <c r="B78" s="1">
         <v>8</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="1">
         <v>201910690</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4679,14 +4685,14 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>23</v>
       </c>
       <c r="B79" s="1">
         <v>8</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="1">
         <v>201910690</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4728,14 +4734,14 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>23</v>
       </c>
       <c r="B80" s="1">
         <v>8</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="1">
         <v>201910690</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4777,14 +4783,14 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>23</v>
       </c>
       <c r="B81" s="1">
         <v>8</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="1">
         <v>201910690</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4826,14 +4832,14 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>24</v>
       </c>
       <c r="B82" s="1">
         <v>8</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="1">
         <v>201911315</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4875,14 +4881,14 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>24</v>
       </c>
       <c r="B83" s="1">
         <v>8</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="1">
         <v>201911315</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -4924,14 +4930,14 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>24</v>
       </c>
       <c r="B84" s="1">
         <v>8</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="1">
         <v>201911315</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -4973,14 +4979,14 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>24</v>
       </c>
       <c r="B85" s="1">
         <v>8</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="1">
         <v>201911315</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5022,14 +5028,14 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>25</v>
       </c>
       <c r="B86" s="1">
         <v>8</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="1">
         <v>201910538</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5071,14 +5077,14 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>25</v>
       </c>
       <c r="B87" s="1">
         <v>8</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="1">
         <v>201910538</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5120,14 +5126,14 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>25</v>
       </c>
       <c r="B88" s="1">
         <v>8</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="1">
         <v>201910538</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5169,14 +5175,14 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>25</v>
       </c>
       <c r="B89" s="1">
         <v>8</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="1">
         <v>201910538</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5218,14 +5224,14 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26</v>
       </c>
       <c r="B90" s="1">
         <v>7</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="1">
         <v>201920495</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5267,14 +5273,14 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>26</v>
       </c>
       <c r="B91" s="1">
         <v>7</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="1">
         <v>201920495</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -5316,14 +5322,14 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>26</v>
       </c>
       <c r="B92" s="1">
         <v>7</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="1">
         <v>201920495</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -5365,14 +5371,14 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>26</v>
       </c>
       <c r="B93" s="1">
         <v>7</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="1">
         <v>201920495</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -5414,14 +5420,14 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>26</v>
       </c>
       <c r="B94" s="1">
         <v>7</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="1">
         <v>201920495</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5463,14 +5469,14 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>28</v>
       </c>
       <c r="B95" s="1">
         <v>8</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="1">
         <v>201821189</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5512,14 +5518,14 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>28</v>
       </c>
       <c r="B96" s="1">
         <v>8</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="1">
         <v>201821189</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5561,14 +5567,14 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>28</v>
       </c>
       <c r="B97" s="1">
         <v>8</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="1">
         <v>201821189</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5610,14 +5616,14 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>29</v>
       </c>
       <c r="B98" s="1">
         <v>8</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="1">
         <v>201921243</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5659,14 +5665,14 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>29</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="1">
         <v>201921243</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5708,14 +5714,14 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>29</v>
       </c>
       <c r="B100" s="1">
         <v>8</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="1">
         <v>201921243</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -5757,14 +5763,14 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>29</v>
       </c>
       <c r="B101" s="1">
         <v>8</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="1">
         <v>201921243</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5806,14 +5812,14 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>29</v>
       </c>
       <c r="B102" s="1">
         <v>8</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="1">
         <v>201921243</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5855,14 +5861,14 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>30</v>
       </c>
       <c r="B103" s="1">
         <v>8</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="1">
         <v>201910642</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -5904,14 +5910,14 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>30</v>
       </c>
       <c r="B104" s="1">
         <v>8</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="1">
         <v>201910642</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -5953,14 +5959,14 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>31</v>
       </c>
       <c r="B105" s="1">
         <v>8</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="1">
         <v>201810190</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -6002,14 +6008,14 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>31</v>
       </c>
       <c r="B106" s="1">
         <v>8</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="1">
         <v>201810190</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -6051,14 +6057,14 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>32</v>
       </c>
       <c r="B107" s="1">
         <v>8</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="1">
         <v>201811203</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -6100,14 +6106,14 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>32</v>
       </c>
       <c r="B108" s="1">
         <v>8</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="1">
         <v>201811203</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -6149,14 +6155,14 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>33</v>
       </c>
       <c r="B109" s="1">
         <v>7</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="1">
         <v>201810648</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -6198,14 +6204,14 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>33</v>
       </c>
       <c r="B110" s="1">
         <v>7</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="1">
         <v>201810648</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -6247,14 +6253,14 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>33</v>
       </c>
       <c r="B111" s="1">
         <v>8</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="1">
         <v>201810648</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -6296,14 +6302,14 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>33</v>
       </c>
       <c r="B112" s="1">
         <v>8</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="1">
         <v>201810648</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -6345,14 +6351,14 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>33</v>
       </c>
       <c r="B113" s="1">
         <v>7</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="1">
         <v>201810648</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -6394,14 +6400,14 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>34</v>
       </c>
       <c r="B114" s="1">
         <v>8</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="1">
         <v>201811279</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -6443,14 +6449,14 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>34</v>
       </c>
       <c r="B115" s="1">
         <v>8</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="1">
         <v>201811279</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -6492,14 +6498,14 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>34</v>
       </c>
       <c r="B116" s="1">
         <v>8</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="1">
         <v>201811279</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -6541,14 +6547,14 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>35</v>
       </c>
       <c r="B117" s="1">
         <v>8</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="1">
         <v>201922047</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -6590,14 +6596,14 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>35</v>
       </c>
       <c r="B118" s="1">
         <v>8</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="1">
         <v>201922047</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -6639,14 +6645,14 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>35</v>
       </c>
       <c r="B119" s="1">
         <v>8</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="1">
         <v>201922047</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -6688,14 +6694,14 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>35</v>
       </c>
       <c r="B120" s="1">
         <v>8</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="1">
         <v>201922047</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -6737,14 +6743,14 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>35</v>
       </c>
       <c r="B121" s="1">
         <v>8</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="1">
         <v>201922047</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -6786,14 +6792,14 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>36</v>
       </c>
       <c r="B122" s="1">
         <v>9</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="1">
         <v>201810127</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -6835,14 +6841,14 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>36</v>
       </c>
       <c r="B123" s="1">
         <v>9</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="1">
         <v>201810127</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6884,14 +6890,14 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>37</v>
       </c>
       <c r="B124" s="1">
         <v>9</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="1">
         <v>201911161</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -6933,14 +6939,14 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>38</v>
       </c>
       <c r="B125" s="1">
         <v>8</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="1">
         <v>201922045</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -6982,14 +6988,14 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>38</v>
       </c>
       <c r="B126" s="1">
         <v>8</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="1">
         <v>201922045</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -7031,14 +7037,14 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38</v>
       </c>
       <c r="B127" s="1">
         <v>8</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="1">
         <v>201922045</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -7080,14 +7086,14 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>38</v>
       </c>
       <c r="B128" s="1">
         <v>8</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="1">
         <v>201922045</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -7129,14 +7135,14 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>38</v>
       </c>
       <c r="B129" s="1">
         <v>8</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="1">
         <v>201922045</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -7178,14 +7184,14 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>39</v>
       </c>
       <c r="B130" s="1">
         <v>8</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="1">
         <v>201920052</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -7227,14 +7233,14 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>39</v>
       </c>
       <c r="B131" s="1">
         <v>8</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="1">
         <v>201920052</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -7276,14 +7282,14 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>39</v>
       </c>
       <c r="B132" s="1">
         <v>8</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="1">
         <v>201920052</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -7325,14 +7331,14 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>39</v>
       </c>
       <c r="B133" s="1">
         <v>8</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="1">
         <v>201920052</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -7374,14 +7380,14 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>39</v>
       </c>
       <c r="B134" s="1">
         <v>8</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="1">
         <v>201920052</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -7423,14 +7429,14 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>40</v>
       </c>
       <c r="B135" s="1">
         <v>8</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="1">
         <v>201821828</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -7472,14 +7478,14 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>40</v>
       </c>
       <c r="B136" s="1">
         <v>8</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="1">
         <v>201821828</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -7521,14 +7527,14 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>40</v>
       </c>
       <c r="B137" s="1">
         <v>8</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="1">
         <v>201821828</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -7570,14 +7576,14 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>40</v>
       </c>
       <c r="B138" s="1">
         <v>8</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="1">
         <v>201821828</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -7619,14 +7625,14 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>40</v>
       </c>
       <c r="B139" s="1">
         <v>8</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="1">
         <v>201821828</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -7668,14 +7674,14 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>40</v>
       </c>
       <c r="B140" s="1">
         <v>8</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="1">
         <v>201821828</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -7717,14 +7723,14 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41</v>
       </c>
       <c r="B141" s="1">
         <v>7</v>
       </c>
-      <c r="C141" s="12">
+      <c r="C141" s="1">
         <v>201821780</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -7766,14 +7772,14 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41</v>
       </c>
       <c r="B142" s="1">
         <v>7</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="1">
         <v>201821780</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -7815,14 +7821,14 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41</v>
       </c>
       <c r="B143" s="1">
         <v>7</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="1">
         <v>201821780</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -7864,14 +7870,14 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41</v>
       </c>
       <c r="B144" s="1">
         <v>7</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="1">
         <v>201821780</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -7913,14 +7919,14 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41</v>
       </c>
       <c r="B145" s="1">
         <v>7</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="1">
         <v>201821780</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -7962,14 +7968,14 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41</v>
       </c>
       <c r="B146" s="1">
         <v>7</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C146" s="1">
         <v>201821780</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -8011,14 +8017,14 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42</v>
       </c>
       <c r="B147" s="1">
         <v>7</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="1">
         <v>201920714</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -8060,14 +8066,14 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42</v>
       </c>
       <c r="B148" s="1">
         <v>7</v>
       </c>
-      <c r="C148" s="12">
+      <c r="C148" s="1">
         <v>201920714</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -8109,14 +8115,14 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42</v>
       </c>
       <c r="B149" s="1">
         <v>7</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="1">
         <v>201920714</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -8158,14 +8164,14 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42</v>
       </c>
       <c r="B150" s="1">
         <v>7</v>
       </c>
-      <c r="C150" s="12">
+      <c r="C150" s="1">
         <v>201920714</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -8207,14 +8213,14 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42</v>
       </c>
       <c r="B151" s="1">
         <v>7</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="1">
         <v>201920714</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -8253,14 +8259,14 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43</v>
       </c>
       <c r="B152" s="1">
         <v>8</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="1">
         <v>201920330</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -8302,14 +8308,14 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43</v>
       </c>
       <c r="B153" s="1">
         <v>8</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="1">
         <v>201920330</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -8351,14 +8357,14 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43</v>
       </c>
       <c r="B154" s="1">
         <v>8</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="1">
         <v>201920330</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -8400,14 +8406,14 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43</v>
       </c>
       <c r="B155" s="1">
         <v>8</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="1">
         <v>201920330</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -8449,14 +8455,14 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44</v>
       </c>
       <c r="B156" s="1">
         <v>7</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="1">
         <v>201820451</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -8498,14 +8504,14 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45</v>
       </c>
       <c r="B157" s="1">
         <v>8</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="1">
         <v>201921897</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -8547,14 +8553,14 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45</v>
       </c>
       <c r="B158" s="1">
         <v>8</v>
       </c>
-      <c r="C158" s="12">
+      <c r="C158" s="1">
         <v>201921897</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -8596,14 +8602,14 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45</v>
       </c>
       <c r="B159" s="1">
         <v>8</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="1">
         <v>201921897</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -8645,14 +8651,14 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45</v>
       </c>
       <c r="B160" s="1">
         <v>8</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="1">
         <v>201921897</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -8694,14 +8700,14 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45</v>
       </c>
       <c r="B161" s="1">
         <v>8</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="1">
         <v>201921897</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -8743,14 +8749,14 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>46</v>
       </c>
       <c r="B162" s="1">
         <v>7</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="1">
         <v>201810290</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -8792,14 +8798,14 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>47</v>
       </c>
       <c r="B163" s="1">
         <v>9</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="1">
         <v>201621214</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -8841,14 +8847,14 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>48</v>
       </c>
       <c r="B164" s="1">
         <v>8</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="1">
         <v>201920064</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -8890,14 +8896,14 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>48</v>
       </c>
       <c r="B165" s="1">
         <v>8</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="1">
         <v>201920064</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -8939,14 +8945,14 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>48</v>
       </c>
       <c r="B166" s="1">
         <v>8</v>
       </c>
-      <c r="C166" s="12">
+      <c r="C166" s="1">
         <v>201920064</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -8988,14 +8994,14 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>48</v>
       </c>
       <c r="B167" s="1">
         <v>8</v>
       </c>
-      <c r="C167" s="12">
+      <c r="C167" s="1">
         <v>201920064</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -9037,14 +9043,14 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>48</v>
       </c>
       <c r="B168" s="1">
         <v>8</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="1">
         <v>201920064</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -9086,14 +9092,14 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>49</v>
       </c>
       <c r="B169" s="1">
         <v>8</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="1">
         <v>201510716</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -9135,14 +9141,14 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>49</v>
       </c>
       <c r="B170" s="1">
         <v>8</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="1">
         <v>201510716</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -9184,14 +9190,14 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>51</v>
       </c>
       <c r="B171" s="1">
         <v>7</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="1">
         <v>201810452</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -9233,14 +9239,14 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>51</v>
       </c>
       <c r="B172" s="1">
         <v>7</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="1">
         <v>201810452</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -9282,14 +9288,14 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>51</v>
       </c>
       <c r="B173" s="1">
         <v>7</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="1">
         <v>201810452</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -9331,14 +9337,14 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>51</v>
       </c>
       <c r="B174" s="1">
         <v>7</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="1">
         <v>201810452</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -9380,14 +9386,14 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>51</v>
       </c>
       <c r="B175" s="1">
         <v>7</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="1">
         <v>201810452</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -9429,14 +9435,14 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>51</v>
       </c>
       <c r="B176" s="1">
         <v>7</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="1">
         <v>201810452</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -9478,14 +9484,14 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>52</v>
       </c>
       <c r="B177" s="1">
         <v>6</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="1">
         <v>202311321</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -9527,14 +9533,14 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>52</v>
       </c>
       <c r="B178" s="1">
         <v>6</v>
       </c>
-      <c r="C178" s="12">
+      <c r="C178" s="1">
         <v>202311321</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -9576,14 +9582,14 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>52</v>
       </c>
       <c r="B179" s="1">
         <v>6</v>
       </c>
-      <c r="C179" s="12">
+      <c r="C179" s="1">
         <v>202311321</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -9625,14 +9631,14 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>52</v>
       </c>
       <c r="B180" s="1">
         <v>6</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="1">
         <v>202311321</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -9674,14 +9680,14 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>52</v>
       </c>
       <c r="B181" s="1">
         <v>6</v>
       </c>
-      <c r="C181" s="12">
+      <c r="C181" s="1">
         <v>202311321</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -9723,14 +9729,14 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>53</v>
       </c>
       <c r="B182" s="1">
         <v>8</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="1">
         <v>201821634</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -9772,14 +9778,14 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>54</v>
       </c>
       <c r="B183" s="1">
         <v>8</v>
       </c>
-      <c r="C183" s="12">
+      <c r="C183" s="1">
         <v>201810962</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -9821,7 +9827,46 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>55</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8</v>
+      </c>
+      <c r="C184" s="1">
+        <v>201921950</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="1">
+        <v>5851</v>
+      </c>
+      <c r="I184" s="1">
+        <v>58308</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" s="1">
+        <v>844</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M184" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
@@ -9831,7 +9876,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
@@ -9841,7 +9886,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
@@ -9851,7 +9896,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
@@ -9861,7 +9906,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
@@ -9871,7 +9916,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
@@ -9881,7 +9926,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
@@ -9891,7 +9936,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
@@ -9901,7 +9946,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
@@ -9911,255 +9956,255 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L183">
     <sortCondition ref="A3:A183"/>
@@ -10173,31 +10218,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9A249-DF1A-465C-A832-F45100DFB469}">
   <dimension ref="A1:AB275"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="90.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="67.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="72.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="94.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="31.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="70.83203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="7" customWidth="1"/>
-    <col min="14" max="20" width="12.5" style="7"/>
-    <col min="21" max="28" width="12.5" style="11"/>
-    <col min="29" max="16384" width="12.5" style="7"/>
+    <col min="1" max="1" width="14.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="94.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="70.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="7" customWidth="1"/>
+    <col min="14" max="20" width="12.42578125" style="7"/>
+    <col min="21" max="28" width="12.42578125" style="11"/>
+    <col min="29" max="16384" width="12.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10210,7 +10255,7 @@
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10251,7 +10296,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>6</v>
       </c>
@@ -10300,7 +10345,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>7</v>
       </c>
@@ -10349,7 +10394,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>8</v>
       </c>
@@ -10398,7 +10443,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>26</v>
       </c>
@@ -10447,7 +10492,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>30</v>
       </c>
@@ -10496,7 +10541,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>36</v>
       </c>
@@ -10545,7 +10590,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>40</v>
       </c>
@@ -10594,7 +10639,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>41</v>
       </c>
@@ -10643,7 +10688,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42</v>
       </c>
@@ -10689,7 +10734,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>46</v>
       </c>
@@ -10738,7 +10783,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>48</v>
       </c>
@@ -10787,7 +10832,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>51</v>
       </c>
@@ -10836,7 +10881,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>54</v>
       </c>
@@ -10885,7 +10930,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>38</v>
       </c>
@@ -10934,8 +10979,46 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="13:28" x14ac:dyDescent="0.2">
-      <c r="M17" s="9"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>55</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>201921950</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5851</v>
+      </c>
+      <c r="I17" s="7">
+        <v>58308</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="7">
+        <v>844</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -10945,7 +11028,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -10955,7 +11038,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
@@ -10965,7 +11048,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -10975,7 +11058,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -10985,7 +11068,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -10995,7 +11078,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -11005,7 +11088,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -11015,7 +11098,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
@@ -11025,7 +11108,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -11035,7 +11118,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
@@ -11045,7 +11128,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -11055,7 +11138,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
@@ -11065,7 +11148,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -11075,7 +11158,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
@@ -11085,7 +11168,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="13:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -11095,249 +11178,249 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L16">
     <sortCondition ref="G3:G16"/>
@@ -11350,31 +11433,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADE1A1A-A097-4F00-BCC8-2FC9A719F6F3}">
   <dimension ref="A1:AB441"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView topLeftCell="A149" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="94.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="70.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.5" style="1"/>
-    <col min="21" max="28" width="12.5" style="4"/>
-    <col min="29" max="16384" width="12.5" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="94.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="70.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14" max="20" width="12.42578125" style="1"/>
+    <col min="21" max="28" width="12.42578125" style="4"/>
+    <col min="29" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11387,7 +11470,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -11428,7 +11511,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11477,7 +11560,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11526,7 +11609,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -11575,7 +11658,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -11624,7 +11707,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>22</v>
       </c>
@@ -11673,7 +11756,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>22</v>
       </c>
@@ -11722,7 +11805,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -11771,7 +11854,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46</v>
       </c>
@@ -11820,7 +11903,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -11869,7 +11952,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -11918,7 +12001,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -11967,7 +12050,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -12016,7 +12099,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>31</v>
       </c>
@@ -12065,7 +12148,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>31</v>
       </c>
@@ -12114,7 +12197,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -12155,7 +12238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -12196,7 +12279,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -12237,7 +12320,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>35</v>
       </c>
@@ -12278,7 +12361,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35</v>
       </c>
@@ -12319,7 +12402,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -12360,7 +12443,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35</v>
       </c>
@@ -12401,7 +12484,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -12442,7 +12525,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>38</v>
       </c>
@@ -12483,7 +12566,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -12524,7 +12607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>38</v>
       </c>
@@ -12565,7 +12648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>38</v>
       </c>
@@ -12606,7 +12689,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>38</v>
       </c>
@@ -12647,7 +12730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -12688,7 +12771,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -12729,7 +12812,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -12770,7 +12853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -12819,7 +12902,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -12868,7 +12951,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -12917,7 +13000,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -12966,7 +13049,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -13015,7 +13098,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -13064,7 +13147,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -13113,7 +13196,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -13162,7 +13245,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -13211,7 +13294,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -13260,7 +13343,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -13309,7 +13392,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>26</v>
       </c>
@@ -13358,7 +13441,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>26</v>
       </c>
@@ -13407,7 +13490,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>26</v>
       </c>
@@ -13456,7 +13539,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>26</v>
       </c>
@@ -13505,7 +13588,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>26</v>
       </c>
@@ -13554,7 +13637,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30</v>
       </c>
@@ -13603,7 +13686,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30</v>
       </c>
@@ -13652,7 +13735,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40</v>
       </c>
@@ -13701,7 +13784,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40</v>
       </c>
@@ -13750,7 +13833,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40</v>
       </c>
@@ -13799,7 +13882,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40</v>
       </c>
@@ -13848,7 +13931,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40</v>
       </c>
@@ -13897,7 +13980,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40</v>
       </c>
@@ -13946,7 +14029,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41</v>
       </c>
@@ -13995,7 +14078,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41</v>
       </c>
@@ -14044,7 +14127,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41</v>
       </c>
@@ -14093,7 +14176,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41</v>
       </c>
@@ -14142,7 +14225,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41</v>
       </c>
@@ -14191,7 +14274,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41</v>
       </c>
@@ -14240,7 +14323,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42</v>
       </c>
@@ -14289,7 +14372,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42</v>
       </c>
@@ -14338,7 +14421,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42</v>
       </c>
@@ -14387,7 +14470,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42</v>
       </c>
@@ -14436,7 +14519,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42</v>
       </c>
@@ -14482,7 +14565,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>48</v>
       </c>
@@ -14531,7 +14614,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>48</v>
       </c>
@@ -14580,7 +14663,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>48</v>
       </c>
@@ -14629,7 +14712,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>48</v>
       </c>
@@ -14678,7 +14761,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>48</v>
       </c>
@@ -14727,7 +14810,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>51</v>
       </c>
@@ -14776,7 +14859,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>51</v>
       </c>
@@ -14825,7 +14908,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>51</v>
       </c>
@@ -14874,7 +14957,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>51</v>
       </c>
@@ -14923,7 +15006,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>51</v>
       </c>
@@ -14972,7 +15055,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>51</v>
       </c>
@@ -15021,7 +15104,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>9</v>
       </c>
@@ -15070,7 +15153,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>9</v>
       </c>
@@ -15119,7 +15202,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>9</v>
       </c>
@@ -15168,7 +15251,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -15217,7 +15300,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>20</v>
       </c>
@@ -15266,7 +15349,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -15315,7 +15398,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>20</v>
       </c>
@@ -15364,7 +15447,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -15413,7 +15496,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>13</v>
       </c>
@@ -15462,7 +15545,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -15511,7 +15594,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>13</v>
       </c>
@@ -15560,7 +15643,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>16</v>
       </c>
@@ -15609,7 +15692,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -15658,7 +15741,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>16</v>
       </c>
@@ -15707,7 +15790,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>16</v>
       </c>
@@ -15756,7 +15839,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>17</v>
       </c>
@@ -15805,7 +15888,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>17</v>
       </c>
@@ -15854,7 +15937,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>17</v>
       </c>
@@ -15903,7 +15986,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>17</v>
       </c>
@@ -15952,7 +16035,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>17</v>
       </c>
@@ -16001,7 +16084,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>18</v>
       </c>
@@ -16050,7 +16133,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>18</v>
       </c>
@@ -16099,7 +16182,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>18</v>
       </c>
@@ -16148,7 +16231,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>18</v>
       </c>
@@ -16197,7 +16280,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>19</v>
       </c>
@@ -16246,7 +16329,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>19</v>
       </c>
@@ -16295,7 +16378,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>19</v>
       </c>
@@ -16344,7 +16427,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>19</v>
       </c>
@@ -16393,7 +16476,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>19</v>
       </c>
@@ -16442,7 +16525,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>19</v>
       </c>
@@ -16491,7 +16574,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>19</v>
       </c>
@@ -16540,7 +16623,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>19</v>
       </c>
@@ -16589,7 +16672,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>29</v>
       </c>
@@ -16638,7 +16721,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>29</v>
       </c>
@@ -16687,7 +16770,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>29</v>
       </c>
@@ -16736,7 +16819,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>29</v>
       </c>
@@ -16785,7 +16868,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>29</v>
       </c>
@@ -16834,7 +16917,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>39</v>
       </c>
@@ -16883,7 +16966,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>39</v>
       </c>
@@ -16932,7 +17015,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>39</v>
       </c>
@@ -16981,7 +17064,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>39</v>
       </c>
@@ -17030,7 +17113,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>39</v>
       </c>
@@ -17079,7 +17162,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43</v>
       </c>
@@ -17128,7 +17211,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43</v>
       </c>
@@ -17177,7 +17260,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43</v>
       </c>
@@ -17226,7 +17309,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43</v>
       </c>
@@ -17275,7 +17358,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45</v>
       </c>
@@ -17324,7 +17407,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45</v>
       </c>
@@ -17373,7 +17456,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45</v>
       </c>
@@ -17422,7 +17505,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45</v>
       </c>
@@ -17471,7 +17554,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45</v>
       </c>
@@ -17520,7 +17603,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>53</v>
       </c>
@@ -17569,7 +17652,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>54</v>
       </c>
@@ -17618,7 +17701,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>49</v>
       </c>
@@ -17667,7 +17750,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>49</v>
       </c>
@@ -17716,7 +17799,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>15</v>
       </c>
@@ -17765,7 +17848,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>15</v>
       </c>
@@ -17814,7 +17897,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>15</v>
       </c>
@@ -17863,7 +17946,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>15</v>
       </c>
@@ -17912,7 +17995,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -17961,7 +18044,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>15</v>
       </c>
@@ -18010,7 +18093,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>47</v>
       </c>
@@ -18059,7 +18142,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -18108,7 +18191,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -18157,7 +18240,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -18206,7 +18289,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>28</v>
       </c>
@@ -18255,7 +18338,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>28</v>
       </c>
@@ -18304,7 +18387,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>28</v>
       </c>
@@ -18353,7 +18436,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>36</v>
       </c>
@@ -18402,7 +18485,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>36</v>
       </c>
@@ -18451,7 +18534,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>37</v>
       </c>
@@ -18500,7 +18583,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>11</v>
       </c>
@@ -18549,7 +18632,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>11</v>
       </c>
@@ -18598,7 +18681,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>11</v>
       </c>
@@ -18647,7 +18730,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>11</v>
       </c>
@@ -18696,7 +18779,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>52</v>
       </c>
@@ -18745,7 +18828,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>52</v>
       </c>
@@ -18794,7 +18877,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>52</v>
       </c>
@@ -18843,7 +18926,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>52</v>
       </c>
@@ -18892,7 +18975,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>52</v>
       </c>
@@ -18941,7 +19024,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44</v>
       </c>
@@ -18990,7 +19073,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>23</v>
       </c>
@@ -19039,7 +19122,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>23</v>
       </c>
@@ -19088,7 +19171,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>23</v>
       </c>
@@ -19137,7 +19220,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>23</v>
       </c>
@@ -19186,7 +19269,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>24</v>
       </c>
@@ -19235,7 +19318,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>24</v>
       </c>
@@ -19284,7 +19367,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>24</v>
       </c>
@@ -19333,7 +19416,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>24</v>
       </c>
@@ -19382,7 +19465,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>25</v>
       </c>
@@ -19431,7 +19514,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>25</v>
       </c>
@@ -19480,7 +19563,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>25</v>
       </c>
@@ -19529,7 +19612,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>25</v>
       </c>
@@ -19578,7 +19661,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>5</v>
       </c>
@@ -19627,7 +19710,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>12</v>
       </c>
@@ -19676,7 +19759,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>12</v>
       </c>
@@ -19725,7 +19808,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>12</v>
       </c>
@@ -19774,7 +19857,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>12</v>
       </c>
@@ -19823,7 +19906,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>32</v>
       </c>
@@ -19872,7 +19955,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>32</v>
       </c>
@@ -19921,7 +20004,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>33</v>
       </c>
@@ -19970,7 +20053,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>33</v>
       </c>
@@ -20019,7 +20102,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>33</v>
       </c>
@@ -20068,7 +20151,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>33</v>
       </c>
@@ -20117,7 +20200,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>33</v>
       </c>
@@ -20166,7 +20249,46 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>55</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8</v>
+      </c>
+      <c r="C184" s="1">
+        <v>201921950</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="1">
+        <v>5851</v>
+      </c>
+      <c r="I184" s="1">
+        <v>58308</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" s="1">
+        <v>844</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M184" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
@@ -20176,7 +20298,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
@@ -20186,7 +20308,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
@@ -20196,7 +20318,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
@@ -20206,7 +20328,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
@@ -20216,7 +20338,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
@@ -20226,7 +20348,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
@@ -20236,7 +20358,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
@@ -20246,7 +20368,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
@@ -20256,255 +20378,255 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L183">
     <sortCondition ref="F3:F183"/>
@@ -20517,31 +20639,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF2B621-AB67-5246-A3AF-89C7B43EA342}">
   <dimension ref="A1:AB310"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="106" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="94.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="70.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.5" style="1"/>
-    <col min="21" max="28" width="12.5" style="4"/>
-    <col min="29" max="16384" width="12.5" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="94.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="70.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14" max="20" width="12.42578125" style="1"/>
+    <col min="21" max="28" width="12.42578125" style="4"/>
+    <col min="29" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20554,7 +20676,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -20595,7 +20717,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -20644,7 +20766,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -20693,7 +20815,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>38</v>
       </c>
@@ -20742,7 +20864,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -20791,7 +20913,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>28</v>
       </c>
@@ -20840,7 +20962,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>24</v>
       </c>
@@ -20889,7 +21011,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>17</v>
       </c>
@@ -20938,7 +21060,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>48</v>
       </c>
@@ -20987,7 +21109,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>34</v>
       </c>
@@ -21036,7 +21158,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -21085,7 +21207,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -21134,7 +21256,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -21183,7 +21305,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -21232,7 +21354,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -21281,7 +21403,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -21330,7 +21452,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41</v>
       </c>
@@ -21379,7 +21501,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46</v>
       </c>
@@ -21428,7 +21550,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -21477,7 +21599,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -21526,7 +21648,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>36</v>
       </c>
@@ -21575,7 +21697,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -21624,7 +21746,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -21673,7 +21795,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -21722,7 +21844,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>35</v>
       </c>
@@ -21771,7 +21893,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43</v>
       </c>
@@ -21820,7 +21942,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10</v>
       </c>
@@ -21869,7 +21991,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -21918,7 +22040,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -21967,7 +22089,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44</v>
       </c>
@@ -22016,7 +22138,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -22065,7 +22187,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -22114,7 +22236,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45</v>
       </c>
@@ -22163,7 +22285,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>19</v>
       </c>
@@ -22212,7 +22334,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>49</v>
       </c>
@@ -22261,7 +22383,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>52</v>
       </c>
@@ -22310,7 +22432,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>13</v>
       </c>
@@ -22359,7 +22481,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -22408,7 +22530,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>18</v>
       </c>
@@ -22457,7 +22579,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -22506,7 +22628,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -22555,7 +22677,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>53</v>
       </c>
@@ -22604,7 +22726,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -22653,7 +22775,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>33</v>
       </c>
@@ -22702,7 +22824,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>25</v>
       </c>
@@ -22751,7 +22873,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -22800,7 +22922,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -22849,7 +22971,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -22898,7 +23020,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>39</v>
       </c>
@@ -22947,7 +23069,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>54</v>
       </c>
@@ -22996,7 +23118,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>29</v>
       </c>
@@ -23045,7 +23167,46 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>201921950</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5851</v>
+      </c>
+      <c r="I53" s="1">
+        <v>58308</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="1">
+        <v>844</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -23055,7 +23216,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
@@ -23065,7 +23226,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
@@ -23075,7 +23236,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
@@ -23085,7 +23246,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
@@ -23095,7 +23256,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -23105,7 +23266,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -23115,7 +23276,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -23125,7 +23286,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
@@ -23135,7 +23296,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
@@ -23145,7 +23306,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
@@ -23155,7 +23316,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
@@ -23165,252 +23326,252 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M52">
     <sortCondition ref="D3:D52"/>

--- a/data/AlumnosMentores.xlsx
+++ b/data/AlumnosMentores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Workspace\Dual enero 2024\Dual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BDEFB-3039-43A0-BE2F-499FE1B4BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027F9E1-55D3-4EA9-A220-BE630E737FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AA9BD31D-C98D-4D3C-98D2-D5E7F9EA89A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA9BD31D-C98D-4D3C-98D2-D5E7F9EA89A9}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUMNOS DUAL" sheetId="1" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0655D9B4-B962-4AC7-A8EE-CA5B330878C6}">
   <dimension ref="A1:AB441"/>
   <sheetViews>
-    <sheetView topLeftCell="G167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184:M184"/>
+    <sheetView tabSelected="1" topLeftCell="G167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -9850,13 +9850,13 @@
         <v>8</v>
       </c>
       <c r="H184" s="1">
-        <v>5851</v>
+        <v>5801</v>
       </c>
       <c r="I184" s="1">
-        <v>58308</v>
+        <v>58305</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K184" s="1">
         <v>844</v>
@@ -11002,13 +11002,13 @@
         <v>8</v>
       </c>
       <c r="H17" s="7">
-        <v>5851</v>
+        <v>5801</v>
       </c>
       <c r="I17" s="7">
-        <v>58308</v>
+        <v>58305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K17" s="7">
         <v>844</v>
@@ -20272,13 +20272,13 @@
         <v>8</v>
       </c>
       <c r="H184" s="1">
-        <v>5851</v>
+        <v>5801</v>
       </c>
       <c r="I184" s="1">
-        <v>58308</v>
+        <v>58305</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K184" s="1">
         <v>844</v>
@@ -20639,8 +20639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF2B621-AB67-5246-A3AF-89C7B43EA342}">
   <dimension ref="A1:AB310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -23190,13 +23190,13 @@
         <v>8</v>
       </c>
       <c r="H53" s="1">
-        <v>5851</v>
+        <v>5801</v>
       </c>
       <c r="I53" s="1">
-        <v>58308</v>
+        <v>58305</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K53" s="1">
         <v>844</v>
